--- a/testcases/case24_ieee_rts.xlsx
+++ b/testcases/case24_ieee_rts.xlsx
@@ -320,7 +320,7 @@
     <t xml:space="preserve">ShortTermRating</t>
   </si>
   <si>
-    <t xml:space="preserve">ContinousRating</t>
+    <t xml:space="preserve">ContinuousRating</t>
   </si>
   <si>
     <t xml:space="preserve">angLB</t>
@@ -1055,61 +1055,61 @@
     <t xml:space="preserve">baseMVA</t>
   </si>
   <si>
+    <t xml:space="preserve">timeperiod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minoperatingcapacity(MW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacity(kW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chargingrate(MW/hr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dischargingrate(MW/hr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChargingEfficiency(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DischargingEfficiency(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dischargingcost(gbp/MWh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chargingcost(gbp/MWh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoe101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaf203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i3423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niro560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model3956</t>
+  </si>
+  <si>
     <t xml:space="preserve">Demand</t>
   </si>
   <si>
-    <t xml:space="preserve">timeperiod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minoperatingcapacity(MW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capacity(MW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chargingrate(MW/hr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dischargingrate(MW/hr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChargingEfficieny(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DischargingEfficieny(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dischargingcost(gbp/Mwh)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chargingcost(gbp/Mwh)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoe101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leaf203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i3423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niro560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model3956</t>
-  </si>
-  <si>
     <t xml:space="preserve">t_in</t>
   </si>
   <si>
     <t xml:space="preserve">t_out</t>
   </si>
   <si>
-    <t xml:space="preserve">SoCStart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SoCEnd</t>
+    <t xml:space="preserve">EStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEnd</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1253,13 +1253,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -1305,7 +1298,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1366,15 +1359,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1383,10 +1372,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2259,7 +2244,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2470,10 +2455,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2485,22 +2470,22 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>351</v>
+      <c r="A2" s="21" t="s">
+        <v>350</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2</v>
@@ -2512,75 +2497,92 @@
         <v>2</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>20</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>20</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>20</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>20</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>20</v>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
@@ -2989,7 +2991,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M44" activeCellId="0" sqref="M44"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4410,7 +4412,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7615,10 +7617,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL26"/>
+  <dimension ref="A1:AL1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T33" activeCellId="0" sqref="T33"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7626,190 +7628,242 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="15" t="s">
+    <row r="1" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-    </row>
-    <row r="2" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R1" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <f aca="false">108*DemandWind!A2</f>
+        <v>97.2</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <f aca="false">97*DemandWind!A2</f>
+        <v>87.3</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <f aca="false">180*DemandWind!A2</f>
+        <v>162</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <f aca="false">74*DemandWind!A2</f>
+        <v>66.6</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <f aca="false">71*DemandWind!A2</f>
+        <v>63.9</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <f aca="false">136*DemandWind!A2</f>
+        <v>122.4</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <f aca="false">125*DemandWind!A2</f>
+        <v>112.5</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <f aca="false">171*DemandWind!A2</f>
+        <v>153.9</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <f aca="false">175*DemandWind!A2</f>
+        <v>157.5</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <f aca="false">195*DemandWind!A2</f>
+        <v>175.5</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <f aca="false">265*DemandWind!A2</f>
+        <v>238.5</v>
+      </c>
+      <c r="M2" s="6" t="n">
+        <f aca="false">194*DemandWind!A2</f>
+        <v>174.6</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <f aca="false">317*DemandWind!A2</f>
+        <v>285.3</v>
+      </c>
+      <c r="O2" s="6" t="n">
+        <f aca="false">100*DemandWind!A2</f>
+        <v>90</v>
+      </c>
+      <c r="P2" s="6" t="n">
+        <f aca="false">333*DemandWind!A2</f>
+        <v>299.7</v>
+      </c>
+      <c r="Q2" s="6" t="n">
+        <f aca="false">181*DemandWind!A2</f>
+        <v>162.9</v>
+      </c>
+      <c r="R2" s="7" t="n">
+        <f aca="false">128*DemandWind!A2</f>
+        <v>115.2</v>
+      </c>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="n">
-        <f aca="false">108*DemandWind!A2</f>
-        <v>97.2</v>
+        <f aca="false">108*DemandWind!A3</f>
+        <v>98.28</v>
       </c>
       <c r="C3" s="6" t="n">
-        <f aca="false">97*DemandWind!A2</f>
-        <v>87.3</v>
+        <f aca="false">97*DemandWind!A3</f>
+        <v>88.27</v>
       </c>
       <c r="D3" s="6" t="n">
-        <f aca="false">180*DemandWind!A2</f>
-        <v>162</v>
+        <f aca="false">180*DemandWind!A3</f>
+        <v>163.8</v>
       </c>
       <c r="E3" s="6" t="n">
-        <f aca="false">74*DemandWind!A2</f>
-        <v>66.6</v>
+        <f aca="false">74*DemandWind!A3</f>
+        <v>67.34</v>
       </c>
       <c r="F3" s="6" t="n">
-        <f aca="false">71*DemandWind!A2</f>
-        <v>63.9</v>
+        <f aca="false">71*DemandWind!A3</f>
+        <v>64.61</v>
       </c>
       <c r="G3" s="6" t="n">
-        <f aca="false">136*DemandWind!A2</f>
-        <v>122.4</v>
+        <f aca="false">136*DemandWind!A3</f>
+        <v>123.76</v>
       </c>
       <c r="H3" s="6" t="n">
-        <f aca="false">125*DemandWind!A2</f>
-        <v>112.5</v>
+        <f aca="false">125*DemandWind!A3</f>
+        <v>113.75</v>
       </c>
       <c r="I3" s="6" t="n">
-        <f aca="false">171*DemandWind!A2</f>
-        <v>153.9</v>
+        <f aca="false">171*DemandWind!A3</f>
+        <v>155.61</v>
       </c>
       <c r="J3" s="6" t="n">
-        <f aca="false">175*DemandWind!A2</f>
-        <v>157.5</v>
+        <f aca="false">175*DemandWind!A3</f>
+        <v>159.25</v>
       </c>
       <c r="K3" s="6" t="n">
-        <f aca="false">195*DemandWind!A2</f>
-        <v>175.5</v>
+        <f aca="false">195*DemandWind!A3</f>
+        <v>177.45</v>
       </c>
       <c r="L3" s="6" t="n">
-        <f aca="false">265*DemandWind!A2</f>
-        <v>238.5</v>
+        <f aca="false">265*DemandWind!A3</f>
+        <v>241.15</v>
       </c>
       <c r="M3" s="6" t="n">
-        <f aca="false">194*DemandWind!A2</f>
-        <v>174.6</v>
+        <f aca="false">194*DemandWind!A3</f>
+        <v>176.54</v>
       </c>
       <c r="N3" s="6" t="n">
-        <f aca="false">317*DemandWind!A2</f>
-        <v>285.3</v>
+        <f aca="false">317*DemandWind!A3</f>
+        <v>288.47</v>
       </c>
       <c r="O3" s="6" t="n">
-        <f aca="false">100*DemandWind!A2</f>
-        <v>90</v>
+        <f aca="false">100*DemandWind!A3</f>
+        <v>91</v>
       </c>
       <c r="P3" s="6" t="n">
-        <f aca="false">333*DemandWind!A2</f>
-        <v>299.7</v>
+        <f aca="false">333*DemandWind!A3</f>
+        <v>303.03</v>
       </c>
       <c r="Q3" s="6" t="n">
-        <f aca="false">181*DemandWind!A2</f>
-        <v>162.9</v>
+        <f aca="false">181*DemandWind!A3</f>
+        <v>164.71</v>
       </c>
       <c r="R3" s="7" t="n">
-        <f aca="false">128*DemandWind!A2</f>
-        <v>115.2</v>
+        <f aca="false">128*DemandWind!A3</f>
+        <v>116.48</v>
       </c>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
@@ -7830,75 +7884,75 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="n">
-        <f aca="false">108*DemandWind!A3</f>
-        <v>98.28</v>
+        <f aca="false">108*DemandWind!A4</f>
+        <v>99.36</v>
       </c>
       <c r="C4" s="6" t="n">
-        <f aca="false">97*DemandWind!A3</f>
-        <v>88.27</v>
+        <f aca="false">97*DemandWind!A4</f>
+        <v>89.24</v>
       </c>
       <c r="D4" s="6" t="n">
-        <f aca="false">180*DemandWind!A3</f>
-        <v>163.8</v>
+        <f aca="false">180*DemandWind!A4</f>
+        <v>165.6</v>
       </c>
       <c r="E4" s="6" t="n">
-        <f aca="false">74*DemandWind!A3</f>
-        <v>67.34</v>
+        <f aca="false">74*DemandWind!A4</f>
+        <v>68.08</v>
       </c>
       <c r="F4" s="6" t="n">
-        <f aca="false">71*DemandWind!A3</f>
-        <v>64.61</v>
+        <f aca="false">71*DemandWind!A4</f>
+        <v>65.32</v>
       </c>
       <c r="G4" s="6" t="n">
-        <f aca="false">136*DemandWind!A3</f>
-        <v>123.76</v>
+        <f aca="false">136*DemandWind!A4</f>
+        <v>125.12</v>
       </c>
       <c r="H4" s="6" t="n">
-        <f aca="false">125*DemandWind!A3</f>
-        <v>113.75</v>
+        <f aca="false">125*DemandWind!A4</f>
+        <v>115</v>
       </c>
       <c r="I4" s="6" t="n">
-        <f aca="false">171*DemandWind!A3</f>
-        <v>155.61</v>
+        <f aca="false">171*DemandWind!A4</f>
+        <v>157.32</v>
       </c>
       <c r="J4" s="6" t="n">
-        <f aca="false">175*DemandWind!A3</f>
-        <v>159.25</v>
+        <f aca="false">175*DemandWind!A4</f>
+        <v>161</v>
       </c>
       <c r="K4" s="6" t="n">
-        <f aca="false">195*DemandWind!A3</f>
-        <v>177.45</v>
+        <f aca="false">195*DemandWind!A4</f>
+        <v>179.4</v>
       </c>
       <c r="L4" s="6" t="n">
-        <f aca="false">265*DemandWind!A3</f>
-        <v>241.15</v>
+        <f aca="false">265*DemandWind!A4</f>
+        <v>243.8</v>
       </c>
       <c r="M4" s="6" t="n">
-        <f aca="false">194*DemandWind!A3</f>
-        <v>176.54</v>
+        <f aca="false">194*DemandWind!A4</f>
+        <v>178.48</v>
       </c>
       <c r="N4" s="6" t="n">
-        <f aca="false">317*DemandWind!A3</f>
-        <v>288.47</v>
+        <f aca="false">317*DemandWind!A4</f>
+        <v>291.64</v>
       </c>
       <c r="O4" s="6" t="n">
-        <f aca="false">100*DemandWind!A3</f>
-        <v>91</v>
+        <f aca="false">100*DemandWind!A4</f>
+        <v>92</v>
       </c>
       <c r="P4" s="6" t="n">
-        <f aca="false">333*DemandWind!A3</f>
-        <v>303.03</v>
+        <f aca="false">333*DemandWind!A4</f>
+        <v>306.36</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <f aca="false">181*DemandWind!A3</f>
-        <v>164.71</v>
+        <f aca="false">181*DemandWind!A4</f>
+        <v>166.52</v>
       </c>
       <c r="R4" s="7" t="n">
-        <f aca="false">128*DemandWind!A3</f>
-        <v>116.48</v>
+        <f aca="false">128*DemandWind!A4</f>
+        <v>117.76</v>
       </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
@@ -7919,75 +7973,75 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="n">
-        <f aca="false">108*DemandWind!A4</f>
-        <v>99.36</v>
+        <f aca="false">108*DemandWind!A5</f>
+        <v>100.44</v>
       </c>
       <c r="C5" s="6" t="n">
-        <f aca="false">97*DemandWind!A4</f>
-        <v>89.24</v>
+        <f aca="false">97*DemandWind!A5</f>
+        <v>90.21</v>
       </c>
       <c r="D5" s="6" t="n">
-        <f aca="false">180*DemandWind!A4</f>
-        <v>165.6</v>
+        <f aca="false">180*DemandWind!A5</f>
+        <v>167.4</v>
       </c>
       <c r="E5" s="6" t="n">
-        <f aca="false">74*DemandWind!A4</f>
-        <v>68.08</v>
+        <f aca="false">74*DemandWind!A5</f>
+        <v>68.82</v>
       </c>
       <c r="F5" s="6" t="n">
-        <f aca="false">71*DemandWind!A4</f>
-        <v>65.32</v>
+        <f aca="false">71*DemandWind!A5</f>
+        <v>66.03</v>
       </c>
       <c r="G5" s="6" t="n">
-        <f aca="false">136*DemandWind!A4</f>
-        <v>125.12</v>
+        <f aca="false">136*DemandWind!A5</f>
+        <v>126.48</v>
       </c>
       <c r="H5" s="6" t="n">
-        <f aca="false">125*DemandWind!A4</f>
-        <v>115</v>
+        <f aca="false">125*DemandWind!A5</f>
+        <v>116.25</v>
       </c>
       <c r="I5" s="6" t="n">
-        <f aca="false">171*DemandWind!A4</f>
-        <v>157.32</v>
+        <f aca="false">171*DemandWind!A5</f>
+        <v>159.03</v>
       </c>
       <c r="J5" s="6" t="n">
-        <f aca="false">175*DemandWind!A4</f>
-        <v>161</v>
+        <f aca="false">175*DemandWind!A5</f>
+        <v>162.75</v>
       </c>
       <c r="K5" s="6" t="n">
-        <f aca="false">195*DemandWind!A4</f>
-        <v>179.4</v>
+        <f aca="false">195*DemandWind!A5</f>
+        <v>181.35</v>
       </c>
       <c r="L5" s="6" t="n">
-        <f aca="false">265*DemandWind!A4</f>
-        <v>243.8</v>
+        <f aca="false">265*DemandWind!A5</f>
+        <v>246.45</v>
       </c>
       <c r="M5" s="6" t="n">
-        <f aca="false">194*DemandWind!A4</f>
-        <v>178.48</v>
+        <f aca="false">194*DemandWind!A5</f>
+        <v>180.42</v>
       </c>
       <c r="N5" s="6" t="n">
-        <f aca="false">317*DemandWind!A4</f>
-        <v>291.64</v>
+        <f aca="false">317*DemandWind!A5</f>
+        <v>294.81</v>
       </c>
       <c r="O5" s="6" t="n">
-        <f aca="false">100*DemandWind!A4</f>
-        <v>92</v>
+        <f aca="false">100*DemandWind!A5</f>
+        <v>93</v>
       </c>
       <c r="P5" s="6" t="n">
-        <f aca="false">333*DemandWind!A4</f>
-        <v>306.36</v>
+        <f aca="false">333*DemandWind!A5</f>
+        <v>309.69</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <f aca="false">181*DemandWind!A4</f>
-        <v>166.52</v>
+        <f aca="false">181*DemandWind!A5</f>
+        <v>168.33</v>
       </c>
       <c r="R5" s="7" t="n">
-        <f aca="false">128*DemandWind!A4</f>
-        <v>117.76</v>
+        <f aca="false">128*DemandWind!A5</f>
+        <v>119.04</v>
       </c>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
@@ -8008,75 +8062,75 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="n">
-        <f aca="false">108*DemandWind!A5</f>
-        <v>100.44</v>
+        <f aca="false">108*DemandWind!A6</f>
+        <v>101.52</v>
       </c>
       <c r="C6" s="6" t="n">
-        <f aca="false">97*DemandWind!A5</f>
-        <v>90.21</v>
+        <f aca="false">97*DemandWind!A6</f>
+        <v>91.18</v>
       </c>
       <c r="D6" s="6" t="n">
-        <f aca="false">180*DemandWind!A5</f>
-        <v>167.4</v>
+        <f aca="false">180*DemandWind!A6</f>
+        <v>169.2</v>
       </c>
       <c r="E6" s="6" t="n">
-        <f aca="false">74*DemandWind!A5</f>
-        <v>68.82</v>
+        <f aca="false">74*DemandWind!A6</f>
+        <v>69.56</v>
       </c>
       <c r="F6" s="6" t="n">
-        <f aca="false">71*DemandWind!A5</f>
-        <v>66.03</v>
+        <f aca="false">71*DemandWind!A6</f>
+        <v>66.74</v>
       </c>
       <c r="G6" s="6" t="n">
-        <f aca="false">136*DemandWind!A5</f>
-        <v>126.48</v>
+        <f aca="false">136*DemandWind!A6</f>
+        <v>127.84</v>
       </c>
       <c r="H6" s="6" t="n">
-        <f aca="false">125*DemandWind!A5</f>
-        <v>116.25</v>
+        <f aca="false">125*DemandWind!A6</f>
+        <v>117.5</v>
       </c>
       <c r="I6" s="6" t="n">
-        <f aca="false">171*DemandWind!A5</f>
-        <v>159.03</v>
+        <f aca="false">171*DemandWind!A6</f>
+        <v>160.74</v>
       </c>
       <c r="J6" s="6" t="n">
-        <f aca="false">175*DemandWind!A5</f>
-        <v>162.75</v>
+        <f aca="false">175*DemandWind!A6</f>
+        <v>164.5</v>
       </c>
       <c r="K6" s="6" t="n">
-        <f aca="false">195*DemandWind!A5</f>
-        <v>181.35</v>
+        <f aca="false">195*DemandWind!A6</f>
+        <v>183.3</v>
       </c>
       <c r="L6" s="6" t="n">
-        <f aca="false">265*DemandWind!A5</f>
-        <v>246.45</v>
+        <f aca="false">265*DemandWind!A6</f>
+        <v>249.1</v>
       </c>
       <c r="M6" s="6" t="n">
-        <f aca="false">194*DemandWind!A5</f>
-        <v>180.42</v>
+        <f aca="false">194*DemandWind!A6</f>
+        <v>182.36</v>
       </c>
       <c r="N6" s="6" t="n">
-        <f aca="false">317*DemandWind!A5</f>
-        <v>294.81</v>
+        <f aca="false">317*DemandWind!A6</f>
+        <v>297.98</v>
       </c>
       <c r="O6" s="6" t="n">
-        <f aca="false">100*DemandWind!A5</f>
-        <v>93</v>
+        <f aca="false">100*DemandWind!A6</f>
+        <v>94</v>
       </c>
       <c r="P6" s="6" t="n">
-        <f aca="false">333*DemandWind!A5</f>
-        <v>309.69</v>
+        <f aca="false">333*DemandWind!A6</f>
+        <v>313.02</v>
       </c>
       <c r="Q6" s="6" t="n">
-        <f aca="false">181*DemandWind!A5</f>
-        <v>168.33</v>
+        <f aca="false">181*DemandWind!A6</f>
+        <v>170.14</v>
       </c>
       <c r="R6" s="7" t="n">
-        <f aca="false">128*DemandWind!A5</f>
-        <v>119.04</v>
+        <f aca="false">128*DemandWind!A6</f>
+        <v>120.32</v>
       </c>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
@@ -8097,75 +8151,75 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="n">
-        <f aca="false">108*DemandWind!A6</f>
-        <v>101.52</v>
+        <f aca="false">108*DemandWind!A7</f>
+        <v>102.6</v>
       </c>
       <c r="C7" s="6" t="n">
-        <f aca="false">97*DemandWind!A6</f>
-        <v>91.18</v>
+        <f aca="false">97*DemandWind!A7</f>
+        <v>92.15</v>
       </c>
       <c r="D7" s="6" t="n">
-        <f aca="false">180*DemandWind!A6</f>
-        <v>169.2</v>
+        <f aca="false">180*DemandWind!A7</f>
+        <v>171</v>
       </c>
       <c r="E7" s="6" t="n">
-        <f aca="false">74*DemandWind!A6</f>
-        <v>69.56</v>
+        <f aca="false">74*DemandWind!A7</f>
+        <v>70.3</v>
       </c>
       <c r="F7" s="6" t="n">
-        <f aca="false">71*DemandWind!A6</f>
-        <v>66.74</v>
+        <f aca="false">71*DemandWind!A7</f>
+        <v>67.45</v>
       </c>
       <c r="G7" s="6" t="n">
-        <f aca="false">136*DemandWind!A6</f>
-        <v>127.84</v>
+        <f aca="false">136*DemandWind!A7</f>
+        <v>129.2</v>
       </c>
       <c r="H7" s="6" t="n">
-        <f aca="false">125*DemandWind!A6</f>
-        <v>117.5</v>
+        <f aca="false">125*DemandWind!A7</f>
+        <v>118.75</v>
       </c>
       <c r="I7" s="6" t="n">
-        <f aca="false">171*DemandWind!A6</f>
-        <v>160.74</v>
+        <f aca="false">171*DemandWind!A7</f>
+        <v>162.45</v>
       </c>
       <c r="J7" s="6" t="n">
-        <f aca="false">175*DemandWind!A6</f>
-        <v>164.5</v>
+        <f aca="false">175*DemandWind!A7</f>
+        <v>166.25</v>
       </c>
       <c r="K7" s="6" t="n">
-        <f aca="false">195*DemandWind!A6</f>
-        <v>183.3</v>
+        <f aca="false">195*DemandWind!A7</f>
+        <v>185.25</v>
       </c>
       <c r="L7" s="6" t="n">
-        <f aca="false">265*DemandWind!A6</f>
-        <v>249.1</v>
+        <f aca="false">265*DemandWind!A7</f>
+        <v>251.75</v>
       </c>
       <c r="M7" s="6" t="n">
-        <f aca="false">194*DemandWind!A6</f>
-        <v>182.36</v>
+        <f aca="false">194*DemandWind!A7</f>
+        <v>184.3</v>
       </c>
       <c r="N7" s="6" t="n">
-        <f aca="false">317*DemandWind!A6</f>
-        <v>297.98</v>
+        <f aca="false">317*DemandWind!A7</f>
+        <v>301.15</v>
       </c>
       <c r="O7" s="6" t="n">
-        <f aca="false">100*DemandWind!A6</f>
-        <v>94</v>
+        <f aca="false">100*DemandWind!A7</f>
+        <v>95</v>
       </c>
       <c r="P7" s="6" t="n">
-        <f aca="false">333*DemandWind!A6</f>
-        <v>313.02</v>
+        <f aca="false">333*DemandWind!A7</f>
+        <v>316.35</v>
       </c>
       <c r="Q7" s="6" t="n">
-        <f aca="false">181*DemandWind!A6</f>
-        <v>170.14</v>
+        <f aca="false">181*DemandWind!A7</f>
+        <v>171.95</v>
       </c>
       <c r="R7" s="7" t="n">
-        <f aca="false">128*DemandWind!A6</f>
-        <v>120.32</v>
+        <f aca="false">128*DemandWind!A7</f>
+        <v>121.6</v>
       </c>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
@@ -8186,75 +8240,75 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="n">
-        <f aca="false">108*DemandWind!A7</f>
-        <v>102.6</v>
+        <f aca="false">108*DemandWind!A8</f>
+        <v>103.68</v>
       </c>
       <c r="C8" s="6" t="n">
-        <f aca="false">97*DemandWind!A7</f>
-        <v>92.15</v>
+        <f aca="false">97*DemandWind!A8</f>
+        <v>93.12</v>
       </c>
       <c r="D8" s="6" t="n">
-        <f aca="false">180*DemandWind!A7</f>
-        <v>171</v>
+        <f aca="false">180*DemandWind!A8</f>
+        <v>172.8</v>
       </c>
       <c r="E8" s="6" t="n">
-        <f aca="false">74*DemandWind!A7</f>
-        <v>70.3</v>
+        <f aca="false">74*DemandWind!A8</f>
+        <v>71.04</v>
       </c>
       <c r="F8" s="6" t="n">
-        <f aca="false">71*DemandWind!A7</f>
-        <v>67.45</v>
+        <f aca="false">71*DemandWind!A8</f>
+        <v>68.16</v>
       </c>
       <c r="G8" s="6" t="n">
-        <f aca="false">136*DemandWind!A7</f>
-        <v>129.2</v>
+        <f aca="false">136*DemandWind!A8</f>
+        <v>130.56</v>
       </c>
       <c r="H8" s="6" t="n">
-        <f aca="false">125*DemandWind!A7</f>
-        <v>118.75</v>
+        <f aca="false">125*DemandWind!A8</f>
+        <v>120</v>
       </c>
       <c r="I8" s="6" t="n">
-        <f aca="false">171*DemandWind!A7</f>
-        <v>162.45</v>
+        <f aca="false">171*DemandWind!A8</f>
+        <v>164.16</v>
       </c>
       <c r="J8" s="6" t="n">
-        <f aca="false">175*DemandWind!A7</f>
-        <v>166.25</v>
+        <f aca="false">175*DemandWind!A8</f>
+        <v>168</v>
       </c>
       <c r="K8" s="6" t="n">
-        <f aca="false">195*DemandWind!A7</f>
-        <v>185.25</v>
+        <f aca="false">195*DemandWind!A8</f>
+        <v>187.2</v>
       </c>
       <c r="L8" s="6" t="n">
-        <f aca="false">265*DemandWind!A7</f>
-        <v>251.75</v>
+        <f aca="false">265*DemandWind!A8</f>
+        <v>254.4</v>
       </c>
       <c r="M8" s="6" t="n">
-        <f aca="false">194*DemandWind!A7</f>
-        <v>184.3</v>
+        <f aca="false">194*DemandWind!A8</f>
+        <v>186.24</v>
       </c>
       <c r="N8" s="6" t="n">
-        <f aca="false">317*DemandWind!A7</f>
-        <v>301.15</v>
+        <f aca="false">317*DemandWind!A8</f>
+        <v>304.32</v>
       </c>
       <c r="O8" s="6" t="n">
-        <f aca="false">100*DemandWind!A7</f>
-        <v>95</v>
+        <f aca="false">100*DemandWind!A8</f>
+        <v>96</v>
       </c>
       <c r="P8" s="6" t="n">
-        <f aca="false">333*DemandWind!A7</f>
-        <v>316.35</v>
+        <f aca="false">333*DemandWind!A8</f>
+        <v>319.68</v>
       </c>
       <c r="Q8" s="6" t="n">
-        <f aca="false">181*DemandWind!A7</f>
-        <v>171.95</v>
+        <f aca="false">181*DemandWind!A8</f>
+        <v>173.76</v>
       </c>
       <c r="R8" s="7" t="n">
-        <f aca="false">128*DemandWind!A7</f>
-        <v>121.6</v>
+        <f aca="false">128*DemandWind!A8</f>
+        <v>122.88</v>
       </c>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
@@ -8275,75 +8329,75 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="n">
-        <f aca="false">108*DemandWind!A8</f>
-        <v>103.68</v>
+        <f aca="false">108*DemandWind!A9</f>
+        <v>104.76</v>
       </c>
       <c r="C9" s="6" t="n">
-        <f aca="false">97*DemandWind!A8</f>
-        <v>93.12</v>
+        <f aca="false">97*DemandWind!A9</f>
+        <v>94.09</v>
       </c>
       <c r="D9" s="6" t="n">
-        <f aca="false">180*DemandWind!A8</f>
-        <v>172.8</v>
+        <f aca="false">180*DemandWind!A9</f>
+        <v>174.6</v>
       </c>
       <c r="E9" s="6" t="n">
-        <f aca="false">74*DemandWind!A8</f>
-        <v>71.04</v>
+        <f aca="false">74*DemandWind!A9</f>
+        <v>71.78</v>
       </c>
       <c r="F9" s="6" t="n">
-        <f aca="false">71*DemandWind!A8</f>
-        <v>68.16</v>
+        <f aca="false">71*DemandWind!A9</f>
+        <v>68.87</v>
       </c>
       <c r="G9" s="6" t="n">
-        <f aca="false">136*DemandWind!A8</f>
-        <v>130.56</v>
+        <f aca="false">136*DemandWind!A9</f>
+        <v>131.92</v>
       </c>
       <c r="H9" s="6" t="n">
-        <f aca="false">125*DemandWind!A8</f>
-        <v>120</v>
+        <f aca="false">125*DemandWind!A9</f>
+        <v>121.25</v>
       </c>
       <c r="I9" s="6" t="n">
-        <f aca="false">171*DemandWind!A8</f>
-        <v>164.16</v>
+        <f aca="false">171*DemandWind!A9</f>
+        <v>165.87</v>
       </c>
       <c r="J9" s="6" t="n">
-        <f aca="false">175*DemandWind!A8</f>
-        <v>168</v>
+        <f aca="false">175*DemandWind!A9</f>
+        <v>169.75</v>
       </c>
       <c r="K9" s="6" t="n">
-        <f aca="false">195*DemandWind!A8</f>
-        <v>187.2</v>
+        <f aca="false">195*DemandWind!A9</f>
+        <v>189.15</v>
       </c>
       <c r="L9" s="6" t="n">
-        <f aca="false">265*DemandWind!A8</f>
-        <v>254.4</v>
+        <f aca="false">265*DemandWind!A9</f>
+        <v>257.05</v>
       </c>
       <c r="M9" s="6" t="n">
-        <f aca="false">194*DemandWind!A8</f>
-        <v>186.24</v>
+        <f aca="false">194*DemandWind!A9</f>
+        <v>188.18</v>
       </c>
       <c r="N9" s="6" t="n">
-        <f aca="false">317*DemandWind!A8</f>
-        <v>304.32</v>
+        <f aca="false">317*DemandWind!A9</f>
+        <v>307.49</v>
       </c>
       <c r="O9" s="6" t="n">
-        <f aca="false">100*DemandWind!A8</f>
-        <v>96</v>
+        <f aca="false">100*DemandWind!A9</f>
+        <v>97</v>
       </c>
       <c r="P9" s="6" t="n">
-        <f aca="false">333*DemandWind!A8</f>
-        <v>319.68</v>
+        <f aca="false">333*DemandWind!A9</f>
+        <v>323.01</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <f aca="false">181*DemandWind!A8</f>
-        <v>173.76</v>
+        <f aca="false">181*DemandWind!A9</f>
+        <v>175.57</v>
       </c>
       <c r="R9" s="7" t="n">
-        <f aca="false">128*DemandWind!A8</f>
-        <v>122.88</v>
+        <f aca="false">128*DemandWind!A9</f>
+        <v>124.16</v>
       </c>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
@@ -8364,75 +8418,75 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="n">
-        <f aca="false">108*DemandWind!A9</f>
-        <v>104.76</v>
+        <f aca="false">108*DemandWind!A10</f>
+        <v>105.84</v>
       </c>
       <c r="C10" s="6" t="n">
-        <f aca="false">97*DemandWind!A9</f>
-        <v>94.09</v>
+        <f aca="false">97*DemandWind!A10</f>
+        <v>95.06</v>
       </c>
       <c r="D10" s="6" t="n">
-        <f aca="false">180*DemandWind!A9</f>
-        <v>174.6</v>
+        <f aca="false">180*DemandWind!A10</f>
+        <v>176.4</v>
       </c>
       <c r="E10" s="6" t="n">
-        <f aca="false">74*DemandWind!A9</f>
-        <v>71.78</v>
+        <f aca="false">74*DemandWind!A10</f>
+        <v>72.52</v>
       </c>
       <c r="F10" s="6" t="n">
-        <f aca="false">71*DemandWind!A9</f>
-        <v>68.87</v>
+        <f aca="false">71*DemandWind!A10</f>
+        <v>69.58</v>
       </c>
       <c r="G10" s="6" t="n">
-        <f aca="false">136*DemandWind!A9</f>
-        <v>131.92</v>
+        <f aca="false">136*DemandWind!A10</f>
+        <v>133.28</v>
       </c>
       <c r="H10" s="6" t="n">
-        <f aca="false">125*DemandWind!A9</f>
-        <v>121.25</v>
+        <f aca="false">125*DemandWind!A10</f>
+        <v>122.5</v>
       </c>
       <c r="I10" s="6" t="n">
-        <f aca="false">171*DemandWind!A9</f>
-        <v>165.87</v>
+        <f aca="false">171*DemandWind!A10</f>
+        <v>167.58</v>
       </c>
       <c r="J10" s="6" t="n">
-        <f aca="false">175*DemandWind!A9</f>
-        <v>169.75</v>
+        <f aca="false">175*DemandWind!A10</f>
+        <v>171.5</v>
       </c>
       <c r="K10" s="6" t="n">
-        <f aca="false">195*DemandWind!A9</f>
-        <v>189.15</v>
+        <f aca="false">195*DemandWind!A10</f>
+        <v>191.1</v>
       </c>
       <c r="L10" s="6" t="n">
-        <f aca="false">265*DemandWind!A9</f>
-        <v>257.05</v>
+        <f aca="false">265*DemandWind!A10</f>
+        <v>259.7</v>
       </c>
       <c r="M10" s="6" t="n">
-        <f aca="false">194*DemandWind!A9</f>
-        <v>188.18</v>
+        <f aca="false">194*DemandWind!A10</f>
+        <v>190.12</v>
       </c>
       <c r="N10" s="6" t="n">
-        <f aca="false">317*DemandWind!A9</f>
-        <v>307.49</v>
+        <f aca="false">317*DemandWind!A10</f>
+        <v>310.66</v>
       </c>
       <c r="O10" s="6" t="n">
-        <f aca="false">100*DemandWind!A9</f>
-        <v>97</v>
+        <f aca="false">100*DemandWind!A10</f>
+        <v>98</v>
       </c>
       <c r="P10" s="6" t="n">
-        <f aca="false">333*DemandWind!A9</f>
-        <v>323.01</v>
+        <f aca="false">333*DemandWind!A10</f>
+        <v>326.34</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <f aca="false">181*DemandWind!A9</f>
-        <v>175.57</v>
+        <f aca="false">181*DemandWind!A10</f>
+        <v>177.38</v>
       </c>
       <c r="R10" s="7" t="n">
-        <f aca="false">128*DemandWind!A9</f>
-        <v>124.16</v>
+        <f aca="false">128*DemandWind!A10</f>
+        <v>125.44</v>
       </c>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
@@ -8453,75 +8507,75 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="n">
-        <f aca="false">108*DemandWind!A10</f>
-        <v>105.84</v>
+        <f aca="false">108*DemandWind!A11</f>
+        <v>106.92</v>
       </c>
       <c r="C11" s="6" t="n">
-        <f aca="false">97*DemandWind!A10</f>
-        <v>95.06</v>
+        <f aca="false">97*DemandWind!A11</f>
+        <v>96.03</v>
       </c>
       <c r="D11" s="6" t="n">
-        <f aca="false">180*DemandWind!A10</f>
-        <v>176.4</v>
+        <f aca="false">180*DemandWind!A11</f>
+        <v>178.2</v>
       </c>
       <c r="E11" s="6" t="n">
-        <f aca="false">74*DemandWind!A10</f>
-        <v>72.52</v>
+        <f aca="false">74*DemandWind!A11</f>
+        <v>73.26</v>
       </c>
       <c r="F11" s="6" t="n">
-        <f aca="false">71*DemandWind!A10</f>
-        <v>69.58</v>
+        <f aca="false">71*DemandWind!A11</f>
+        <v>70.29</v>
       </c>
       <c r="G11" s="6" t="n">
-        <f aca="false">136*DemandWind!A10</f>
-        <v>133.28</v>
+        <f aca="false">136*DemandWind!A11</f>
+        <v>134.64</v>
       </c>
       <c r="H11" s="6" t="n">
-        <f aca="false">125*DemandWind!A10</f>
-        <v>122.5</v>
+        <f aca="false">125*DemandWind!A11</f>
+        <v>123.75</v>
       </c>
       <c r="I11" s="6" t="n">
-        <f aca="false">171*DemandWind!A10</f>
-        <v>167.58</v>
+        <f aca="false">171*DemandWind!A11</f>
+        <v>169.29</v>
       </c>
       <c r="J11" s="6" t="n">
-        <f aca="false">175*DemandWind!A10</f>
-        <v>171.5</v>
+        <f aca="false">175*DemandWind!A11</f>
+        <v>173.25</v>
       </c>
       <c r="K11" s="6" t="n">
-        <f aca="false">195*DemandWind!A10</f>
-        <v>191.1</v>
+        <f aca="false">195*DemandWind!A11</f>
+        <v>193.05</v>
       </c>
       <c r="L11" s="6" t="n">
-        <f aca="false">265*DemandWind!A10</f>
-        <v>259.7</v>
+        <f aca="false">265*DemandWind!A11</f>
+        <v>262.35</v>
       </c>
       <c r="M11" s="6" t="n">
-        <f aca="false">194*DemandWind!A10</f>
-        <v>190.12</v>
+        <f aca="false">194*DemandWind!A11</f>
+        <v>192.06</v>
       </c>
       <c r="N11" s="6" t="n">
-        <f aca="false">317*DemandWind!A10</f>
-        <v>310.66</v>
+        <f aca="false">317*DemandWind!A11</f>
+        <v>313.83</v>
       </c>
       <c r="O11" s="6" t="n">
-        <f aca="false">100*DemandWind!A10</f>
-        <v>98</v>
+        <f aca="false">100*DemandWind!A11</f>
+        <v>99</v>
       </c>
       <c r="P11" s="6" t="n">
-        <f aca="false">333*DemandWind!A10</f>
-        <v>326.34</v>
+        <f aca="false">333*DemandWind!A11</f>
+        <v>329.67</v>
       </c>
       <c r="Q11" s="6" t="n">
-        <f aca="false">181*DemandWind!A10</f>
-        <v>177.38</v>
+        <f aca="false">181*DemandWind!A11</f>
+        <v>179.19</v>
       </c>
       <c r="R11" s="7" t="n">
-        <f aca="false">128*DemandWind!A10</f>
-        <v>125.44</v>
+        <f aca="false">128*DemandWind!A11</f>
+        <v>126.72</v>
       </c>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
@@ -8542,1119 +8596,1028 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="n">
-        <f aca="false">108*DemandWind!A11</f>
-        <v>106.92</v>
+        <f aca="false">108*DemandWind!A12</f>
+        <v>108</v>
       </c>
       <c r="C12" s="6" t="n">
-        <f aca="false">97*DemandWind!A11</f>
-        <v>96.03</v>
+        <f aca="false">97*DemandWind!A12</f>
+        <v>97</v>
       </c>
       <c r="D12" s="6" t="n">
-        <f aca="false">180*DemandWind!A11</f>
-        <v>178.2</v>
+        <f aca="false">180*DemandWind!A12</f>
+        <v>180</v>
       </c>
       <c r="E12" s="6" t="n">
-        <f aca="false">74*DemandWind!A11</f>
-        <v>73.26</v>
+        <f aca="false">74*DemandWind!A12</f>
+        <v>74</v>
       </c>
       <c r="F12" s="6" t="n">
-        <f aca="false">71*DemandWind!A11</f>
-        <v>70.29</v>
+        <f aca="false">71*DemandWind!A12</f>
+        <v>71</v>
       </c>
       <c r="G12" s="6" t="n">
-        <f aca="false">136*DemandWind!A11</f>
-        <v>134.64</v>
+        <f aca="false">136*DemandWind!A12</f>
+        <v>136</v>
       </c>
       <c r="H12" s="6" t="n">
-        <f aca="false">125*DemandWind!A11</f>
-        <v>123.75</v>
+        <f aca="false">125*DemandWind!A12</f>
+        <v>125</v>
       </c>
       <c r="I12" s="6" t="n">
-        <f aca="false">171*DemandWind!A11</f>
-        <v>169.29</v>
+        <f aca="false">171*DemandWind!A12</f>
+        <v>171</v>
       </c>
       <c r="J12" s="6" t="n">
-        <f aca="false">175*DemandWind!A11</f>
-        <v>173.25</v>
+        <f aca="false">175*DemandWind!A12</f>
+        <v>175</v>
       </c>
       <c r="K12" s="6" t="n">
-        <f aca="false">195*DemandWind!A11</f>
-        <v>193.05</v>
+        <f aca="false">195*DemandWind!A12</f>
+        <v>195</v>
       </c>
       <c r="L12" s="6" t="n">
-        <f aca="false">265*DemandWind!A11</f>
-        <v>262.35</v>
+        <f aca="false">265*DemandWind!A12</f>
+        <v>265</v>
       </c>
       <c r="M12" s="6" t="n">
-        <f aca="false">194*DemandWind!A11</f>
-        <v>192.06</v>
+        <f aca="false">194*DemandWind!A12</f>
+        <v>194</v>
       </c>
       <c r="N12" s="6" t="n">
-        <f aca="false">317*DemandWind!A11</f>
-        <v>313.83</v>
+        <f aca="false">317*DemandWind!A12</f>
+        <v>317</v>
       </c>
       <c r="O12" s="6" t="n">
-        <f aca="false">100*DemandWind!A11</f>
-        <v>99</v>
+        <f aca="false">100*DemandWind!A12</f>
+        <v>100</v>
       </c>
       <c r="P12" s="6" t="n">
-        <f aca="false">333*DemandWind!A11</f>
-        <v>329.67</v>
+        <f aca="false">333*DemandWind!A12</f>
+        <v>333</v>
       </c>
       <c r="Q12" s="6" t="n">
-        <f aca="false">181*DemandWind!A11</f>
-        <v>179.19</v>
+        <f aca="false">181*DemandWind!A12</f>
+        <v>181</v>
       </c>
       <c r="R12" s="7" t="n">
-        <f aca="false">128*DemandWind!A11</f>
-        <v>126.72</v>
-      </c>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
+        <f aca="false">128*DemandWind!A12</f>
+        <v>128</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="n">
-        <f aca="false">108*DemandWind!A12</f>
-        <v>108</v>
+        <f aca="false">108*DemandWind!A13</f>
+        <v>109.08</v>
       </c>
       <c r="C13" s="6" t="n">
-        <f aca="false">97*DemandWind!A12</f>
-        <v>97</v>
+        <f aca="false">97*DemandWind!A13</f>
+        <v>97.97</v>
       </c>
       <c r="D13" s="6" t="n">
-        <f aca="false">180*DemandWind!A12</f>
-        <v>180</v>
+        <f aca="false">180*DemandWind!A13</f>
+        <v>181.8</v>
       </c>
       <c r="E13" s="6" t="n">
-        <f aca="false">74*DemandWind!A12</f>
-        <v>74</v>
+        <f aca="false">74*DemandWind!A13</f>
+        <v>74.74</v>
       </c>
       <c r="F13" s="6" t="n">
-        <f aca="false">71*DemandWind!A12</f>
-        <v>71</v>
+        <f aca="false">71*DemandWind!A13</f>
+        <v>71.71</v>
       </c>
       <c r="G13" s="6" t="n">
-        <f aca="false">136*DemandWind!A12</f>
-        <v>136</v>
+        <f aca="false">136*DemandWind!A13</f>
+        <v>137.36</v>
       </c>
       <c r="H13" s="6" t="n">
-        <f aca="false">125*DemandWind!A12</f>
-        <v>125</v>
+        <f aca="false">125*DemandWind!A13</f>
+        <v>126.25</v>
       </c>
       <c r="I13" s="6" t="n">
-        <f aca="false">171*DemandWind!A12</f>
-        <v>171</v>
+        <f aca="false">171*DemandWind!A13</f>
+        <v>172.71</v>
       </c>
       <c r="J13" s="6" t="n">
-        <f aca="false">175*DemandWind!A12</f>
-        <v>175</v>
+        <f aca="false">175*DemandWind!A13</f>
+        <v>176.75</v>
       </c>
       <c r="K13" s="6" t="n">
-        <f aca="false">195*DemandWind!A12</f>
-        <v>195</v>
+        <f aca="false">195*DemandWind!A13</f>
+        <v>196.95</v>
       </c>
       <c r="L13" s="6" t="n">
-        <f aca="false">265*DemandWind!A12</f>
-        <v>265</v>
+        <f aca="false">265*DemandWind!A13</f>
+        <v>267.65</v>
       </c>
       <c r="M13" s="6" t="n">
-        <f aca="false">194*DemandWind!A12</f>
-        <v>194</v>
+        <f aca="false">194*DemandWind!A13</f>
+        <v>195.94</v>
       </c>
       <c r="N13" s="6" t="n">
-        <f aca="false">317*DemandWind!A12</f>
-        <v>317</v>
+        <f aca="false">317*DemandWind!A13</f>
+        <v>320.17</v>
       </c>
       <c r="O13" s="6" t="n">
-        <f aca="false">100*DemandWind!A12</f>
-        <v>100</v>
+        <f aca="false">100*DemandWind!A13</f>
+        <v>101</v>
       </c>
       <c r="P13" s="6" t="n">
-        <f aca="false">333*DemandWind!A12</f>
-        <v>333</v>
+        <f aca="false">333*DemandWind!A13</f>
+        <v>336.33</v>
       </c>
       <c r="Q13" s="6" t="n">
-        <f aca="false">181*DemandWind!A12</f>
-        <v>181</v>
+        <f aca="false">181*DemandWind!A13</f>
+        <v>182.81</v>
       </c>
       <c r="R13" s="7" t="n">
-        <f aca="false">128*DemandWind!A12</f>
-        <v>128</v>
+        <f aca="false">128*DemandWind!A13</f>
+        <v>129.28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="n">
-        <f aca="false">108*DemandWind!A13</f>
-        <v>109.08</v>
+        <f aca="false">108*DemandWind!A14</f>
+        <v>110.16</v>
       </c>
       <c r="C14" s="6" t="n">
-        <f aca="false">97*DemandWind!A13</f>
-        <v>97.97</v>
+        <f aca="false">97*DemandWind!A14</f>
+        <v>98.94</v>
       </c>
       <c r="D14" s="6" t="n">
-        <f aca="false">180*DemandWind!A13</f>
-        <v>181.8</v>
+        <f aca="false">180*DemandWind!A14</f>
+        <v>183.6</v>
       </c>
       <c r="E14" s="6" t="n">
-        <f aca="false">74*DemandWind!A13</f>
-        <v>74.74</v>
+        <f aca="false">74*DemandWind!A14</f>
+        <v>75.48</v>
       </c>
       <c r="F14" s="6" t="n">
-        <f aca="false">71*DemandWind!A13</f>
-        <v>71.71</v>
+        <f aca="false">71*DemandWind!A14</f>
+        <v>72.42</v>
       </c>
       <c r="G14" s="6" t="n">
-        <f aca="false">136*DemandWind!A13</f>
-        <v>137.36</v>
+        <f aca="false">136*DemandWind!A14</f>
+        <v>138.72</v>
       </c>
       <c r="H14" s="6" t="n">
-        <f aca="false">125*DemandWind!A13</f>
-        <v>126.25</v>
+        <f aca="false">125*DemandWind!A14</f>
+        <v>127.5</v>
       </c>
       <c r="I14" s="6" t="n">
-        <f aca="false">171*DemandWind!A13</f>
-        <v>172.71</v>
+        <f aca="false">171*DemandWind!A14</f>
+        <v>174.42</v>
       </c>
       <c r="J14" s="6" t="n">
-        <f aca="false">175*DemandWind!A13</f>
-        <v>176.75</v>
+        <f aca="false">175*DemandWind!A14</f>
+        <v>178.5</v>
       </c>
       <c r="K14" s="6" t="n">
-        <f aca="false">195*DemandWind!A13</f>
-        <v>196.95</v>
+        <f aca="false">195*DemandWind!A14</f>
+        <v>198.9</v>
       </c>
       <c r="L14" s="6" t="n">
-        <f aca="false">265*DemandWind!A13</f>
-        <v>267.65</v>
+        <f aca="false">265*DemandWind!A14</f>
+        <v>270.3</v>
       </c>
       <c r="M14" s="6" t="n">
-        <f aca="false">194*DemandWind!A13</f>
-        <v>195.94</v>
+        <f aca="false">194*DemandWind!A14</f>
+        <v>197.88</v>
       </c>
       <c r="N14" s="6" t="n">
-        <f aca="false">317*DemandWind!A13</f>
-        <v>320.17</v>
+        <f aca="false">317*DemandWind!A14</f>
+        <v>323.34</v>
       </c>
       <c r="O14" s="6" t="n">
-        <f aca="false">100*DemandWind!A13</f>
-        <v>101</v>
+        <f aca="false">100*DemandWind!A14</f>
+        <v>102</v>
       </c>
       <c r="P14" s="6" t="n">
-        <f aca="false">333*DemandWind!A13</f>
-        <v>336.33</v>
+        <f aca="false">333*DemandWind!A14</f>
+        <v>339.66</v>
       </c>
       <c r="Q14" s="6" t="n">
-        <f aca="false">181*DemandWind!A13</f>
-        <v>182.81</v>
+        <f aca="false">181*DemandWind!A14</f>
+        <v>184.62</v>
       </c>
       <c r="R14" s="7" t="n">
-        <f aca="false">128*DemandWind!A13</f>
-        <v>129.28</v>
+        <f aca="false">128*DemandWind!A14</f>
+        <v>130.56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="n">
-        <f aca="false">108*DemandWind!A14</f>
-        <v>110.16</v>
+        <f aca="false">108*DemandWind!A15</f>
+        <v>111.24</v>
       </c>
       <c r="C15" s="6" t="n">
-        <f aca="false">97*DemandWind!A14</f>
-        <v>98.94</v>
+        <f aca="false">97*DemandWind!A15</f>
+        <v>99.91</v>
       </c>
       <c r="D15" s="6" t="n">
-        <f aca="false">180*DemandWind!A14</f>
-        <v>183.6</v>
+        <f aca="false">180*DemandWind!A15</f>
+        <v>185.4</v>
       </c>
       <c r="E15" s="6" t="n">
-        <f aca="false">74*DemandWind!A14</f>
-        <v>75.48</v>
+        <f aca="false">74*DemandWind!A15</f>
+        <v>76.22</v>
       </c>
       <c r="F15" s="6" t="n">
-        <f aca="false">71*DemandWind!A14</f>
-        <v>72.42</v>
+        <f aca="false">71*DemandWind!A15</f>
+        <v>73.13</v>
       </c>
       <c r="G15" s="6" t="n">
-        <f aca="false">136*DemandWind!A14</f>
-        <v>138.72</v>
+        <f aca="false">136*DemandWind!A15</f>
+        <v>140.08</v>
       </c>
       <c r="H15" s="6" t="n">
-        <f aca="false">125*DemandWind!A14</f>
-        <v>127.5</v>
+        <f aca="false">125*DemandWind!A15</f>
+        <v>128.75</v>
       </c>
       <c r="I15" s="6" t="n">
-        <f aca="false">171*DemandWind!A14</f>
-        <v>174.42</v>
+        <f aca="false">171*DemandWind!A15</f>
+        <v>176.13</v>
       </c>
       <c r="J15" s="6" t="n">
-        <f aca="false">175*DemandWind!A14</f>
-        <v>178.5</v>
+        <f aca="false">175*DemandWind!A15</f>
+        <v>180.25</v>
       </c>
       <c r="K15" s="6" t="n">
-        <f aca="false">195*DemandWind!A14</f>
-        <v>198.9</v>
+        <f aca="false">195*DemandWind!A15</f>
+        <v>200.85</v>
       </c>
       <c r="L15" s="6" t="n">
-        <f aca="false">265*DemandWind!A14</f>
-        <v>270.3</v>
+        <f aca="false">265*DemandWind!A15</f>
+        <v>272.95</v>
       </c>
       <c r="M15" s="6" t="n">
-        <f aca="false">194*DemandWind!A14</f>
-        <v>197.88</v>
+        <f aca="false">194*DemandWind!A15</f>
+        <v>199.82</v>
       </c>
       <c r="N15" s="6" t="n">
-        <f aca="false">317*DemandWind!A14</f>
-        <v>323.34</v>
+        <f aca="false">317*DemandWind!A15</f>
+        <v>326.51</v>
       </c>
       <c r="O15" s="6" t="n">
-        <f aca="false">100*DemandWind!A14</f>
-        <v>102</v>
+        <f aca="false">100*DemandWind!A15</f>
+        <v>103</v>
       </c>
       <c r="P15" s="6" t="n">
-        <f aca="false">333*DemandWind!A14</f>
-        <v>339.66</v>
+        <f aca="false">333*DemandWind!A15</f>
+        <v>342.99</v>
       </c>
       <c r="Q15" s="6" t="n">
-        <f aca="false">181*DemandWind!A14</f>
-        <v>184.62</v>
+        <f aca="false">181*DemandWind!A15</f>
+        <v>186.43</v>
       </c>
       <c r="R15" s="7" t="n">
-        <f aca="false">128*DemandWind!A14</f>
-        <v>130.56</v>
+        <f aca="false">128*DemandWind!A15</f>
+        <v>131.84</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5" t="n">
-        <f aca="false">108*DemandWind!A15</f>
-        <v>111.24</v>
+        <f aca="false">108*DemandWind!A16</f>
+        <v>112.32</v>
       </c>
       <c r="C16" s="6" t="n">
-        <f aca="false">97*DemandWind!A15</f>
-        <v>99.91</v>
+        <f aca="false">97*DemandWind!A16</f>
+        <v>100.88</v>
       </c>
       <c r="D16" s="6" t="n">
-        <f aca="false">180*DemandWind!A15</f>
-        <v>185.4</v>
+        <f aca="false">180*DemandWind!A16</f>
+        <v>187.2</v>
       </c>
       <c r="E16" s="6" t="n">
-        <f aca="false">74*DemandWind!A15</f>
-        <v>76.22</v>
+        <f aca="false">74*DemandWind!A16</f>
+        <v>76.96</v>
       </c>
       <c r="F16" s="6" t="n">
-        <f aca="false">71*DemandWind!A15</f>
-        <v>73.13</v>
+        <f aca="false">71*DemandWind!A16</f>
+        <v>73.84</v>
       </c>
       <c r="G16" s="6" t="n">
-        <f aca="false">136*DemandWind!A15</f>
-        <v>140.08</v>
+        <f aca="false">136*DemandWind!A16</f>
+        <v>141.44</v>
       </c>
       <c r="H16" s="6" t="n">
-        <f aca="false">125*DemandWind!A15</f>
-        <v>128.75</v>
+        <f aca="false">125*DemandWind!A16</f>
+        <v>130</v>
       </c>
       <c r="I16" s="6" t="n">
-        <f aca="false">171*DemandWind!A15</f>
-        <v>176.13</v>
+        <f aca="false">171*DemandWind!A16</f>
+        <v>177.84</v>
       </c>
       <c r="J16" s="6" t="n">
-        <f aca="false">175*DemandWind!A15</f>
-        <v>180.25</v>
+        <f aca="false">175*DemandWind!A16</f>
+        <v>182</v>
       </c>
       <c r="K16" s="6" t="n">
-        <f aca="false">195*DemandWind!A15</f>
-        <v>200.85</v>
+        <f aca="false">195*DemandWind!A16</f>
+        <v>202.8</v>
       </c>
       <c r="L16" s="6" t="n">
-        <f aca="false">265*DemandWind!A15</f>
-        <v>272.95</v>
+        <f aca="false">265*DemandWind!A16</f>
+        <v>275.6</v>
       </c>
       <c r="M16" s="6" t="n">
-        <f aca="false">194*DemandWind!A15</f>
-        <v>199.82</v>
+        <f aca="false">194*DemandWind!A16</f>
+        <v>201.76</v>
       </c>
       <c r="N16" s="6" t="n">
-        <f aca="false">317*DemandWind!A15</f>
-        <v>326.51</v>
+        <f aca="false">317*DemandWind!A16</f>
+        <v>329.68</v>
       </c>
       <c r="O16" s="6" t="n">
-        <f aca="false">100*DemandWind!A15</f>
-        <v>103</v>
+        <f aca="false">100*DemandWind!A16</f>
+        <v>104</v>
       </c>
       <c r="P16" s="6" t="n">
-        <f aca="false">333*DemandWind!A15</f>
-        <v>342.99</v>
+        <f aca="false">333*DemandWind!A16</f>
+        <v>346.32</v>
       </c>
       <c r="Q16" s="6" t="n">
-        <f aca="false">181*DemandWind!A15</f>
-        <v>186.43</v>
+        <f aca="false">181*DemandWind!A16</f>
+        <v>188.24</v>
       </c>
       <c r="R16" s="7" t="n">
-        <f aca="false">128*DemandWind!A15</f>
-        <v>131.84</v>
+        <f aca="false">128*DemandWind!A16</f>
+        <v>133.12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="n">
-        <f aca="false">108*DemandWind!A16</f>
-        <v>112.32</v>
+        <f aca="false">108*DemandWind!A17</f>
+        <v>113.4</v>
       </c>
       <c r="C17" s="6" t="n">
-        <f aca="false">97*DemandWind!A16</f>
-        <v>100.88</v>
+        <f aca="false">97*DemandWind!A17</f>
+        <v>101.85</v>
       </c>
       <c r="D17" s="6" t="n">
-        <f aca="false">180*DemandWind!A16</f>
-        <v>187.2</v>
+        <f aca="false">180*DemandWind!A17</f>
+        <v>189</v>
       </c>
       <c r="E17" s="6" t="n">
-        <f aca="false">74*DemandWind!A16</f>
-        <v>76.96</v>
+        <f aca="false">74*DemandWind!A17</f>
+        <v>77.7</v>
       </c>
       <c r="F17" s="6" t="n">
-        <f aca="false">71*DemandWind!A16</f>
-        <v>73.84</v>
+        <f aca="false">71*DemandWind!A17</f>
+        <v>74.55</v>
       </c>
       <c r="G17" s="6" t="n">
-        <f aca="false">136*DemandWind!A16</f>
-        <v>141.44</v>
+        <f aca="false">136*DemandWind!A17</f>
+        <v>142.8</v>
       </c>
       <c r="H17" s="6" t="n">
-        <f aca="false">125*DemandWind!A16</f>
-        <v>130</v>
+        <f aca="false">125*DemandWind!A17</f>
+        <v>131.25</v>
       </c>
       <c r="I17" s="6" t="n">
-        <f aca="false">171*DemandWind!A16</f>
-        <v>177.84</v>
+        <f aca="false">171*DemandWind!A17</f>
+        <v>179.55</v>
       </c>
       <c r="J17" s="6" t="n">
-        <f aca="false">175*DemandWind!A16</f>
-        <v>182</v>
+        <f aca="false">175*DemandWind!A17</f>
+        <v>183.75</v>
       </c>
       <c r="K17" s="6" t="n">
-        <f aca="false">195*DemandWind!A16</f>
-        <v>202.8</v>
+        <f aca="false">195*DemandWind!A17</f>
+        <v>204.75</v>
       </c>
       <c r="L17" s="6" t="n">
-        <f aca="false">265*DemandWind!A16</f>
-        <v>275.6</v>
+        <f aca="false">265*DemandWind!A17</f>
+        <v>278.25</v>
       </c>
       <c r="M17" s="6" t="n">
-        <f aca="false">194*DemandWind!A16</f>
-        <v>201.76</v>
+        <f aca="false">194*DemandWind!A17</f>
+        <v>203.7</v>
       </c>
       <c r="N17" s="6" t="n">
-        <f aca="false">317*DemandWind!A16</f>
-        <v>329.68</v>
+        <f aca="false">317*DemandWind!A17</f>
+        <v>332.85</v>
       </c>
       <c r="O17" s="6" t="n">
-        <f aca="false">100*DemandWind!A16</f>
-        <v>104</v>
+        <f aca="false">100*DemandWind!A17</f>
+        <v>105</v>
       </c>
       <c r="P17" s="6" t="n">
-        <f aca="false">333*DemandWind!A16</f>
-        <v>346.32</v>
+        <f aca="false">333*DemandWind!A17</f>
+        <v>349.65</v>
       </c>
       <c r="Q17" s="6" t="n">
-        <f aca="false">181*DemandWind!A16</f>
-        <v>188.24</v>
+        <f aca="false">181*DemandWind!A17</f>
+        <v>190.05</v>
       </c>
       <c r="R17" s="7" t="n">
-        <f aca="false">128*DemandWind!A16</f>
-        <v>133.12</v>
+        <f aca="false">128*DemandWind!A17</f>
+        <v>134.4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="n">
-        <f aca="false">108*DemandWind!A17</f>
-        <v>113.4</v>
+        <f aca="false">108*DemandWind!A18</f>
+        <v>114.48</v>
       </c>
       <c r="C18" s="6" t="n">
-        <f aca="false">97*DemandWind!A17</f>
-        <v>101.85</v>
+        <f aca="false">97*DemandWind!A18</f>
+        <v>102.82</v>
       </c>
       <c r="D18" s="6" t="n">
-        <f aca="false">180*DemandWind!A17</f>
-        <v>189</v>
+        <f aca="false">180*DemandWind!A18</f>
+        <v>190.8</v>
       </c>
       <c r="E18" s="6" t="n">
-        <f aca="false">74*DemandWind!A17</f>
-        <v>77.7</v>
+        <f aca="false">74*DemandWind!A18</f>
+        <v>78.44</v>
       </c>
       <c r="F18" s="6" t="n">
-        <f aca="false">71*DemandWind!A17</f>
-        <v>74.55</v>
+        <f aca="false">71*DemandWind!A18</f>
+        <v>75.26</v>
       </c>
       <c r="G18" s="6" t="n">
-        <f aca="false">136*DemandWind!A17</f>
-        <v>142.8</v>
+        <f aca="false">136*DemandWind!A18</f>
+        <v>144.16</v>
       </c>
       <c r="H18" s="6" t="n">
-        <f aca="false">125*DemandWind!A17</f>
-        <v>131.25</v>
+        <f aca="false">125*DemandWind!A18</f>
+        <v>132.5</v>
       </c>
       <c r="I18" s="6" t="n">
-        <f aca="false">171*DemandWind!A17</f>
-        <v>179.55</v>
+        <f aca="false">171*DemandWind!A18</f>
+        <v>181.26</v>
       </c>
       <c r="J18" s="6" t="n">
-        <f aca="false">175*DemandWind!A17</f>
-        <v>183.75</v>
+        <f aca="false">175*DemandWind!A18</f>
+        <v>185.5</v>
       </c>
       <c r="K18" s="6" t="n">
-        <f aca="false">195*DemandWind!A17</f>
-        <v>204.75</v>
+        <f aca="false">195*DemandWind!A18</f>
+        <v>206.7</v>
       </c>
       <c r="L18" s="6" t="n">
-        <f aca="false">265*DemandWind!A17</f>
-        <v>278.25</v>
+        <f aca="false">265*DemandWind!A18</f>
+        <v>280.9</v>
       </c>
       <c r="M18" s="6" t="n">
-        <f aca="false">194*DemandWind!A17</f>
-        <v>203.7</v>
+        <f aca="false">194*DemandWind!A18</f>
+        <v>205.64</v>
       </c>
       <c r="N18" s="6" t="n">
-        <f aca="false">317*DemandWind!A17</f>
-        <v>332.85</v>
+        <f aca="false">317*DemandWind!A18</f>
+        <v>336.02</v>
       </c>
       <c r="O18" s="6" t="n">
-        <f aca="false">100*DemandWind!A17</f>
-        <v>105</v>
+        <f aca="false">100*DemandWind!A18</f>
+        <v>106</v>
       </c>
       <c r="P18" s="6" t="n">
-        <f aca="false">333*DemandWind!A17</f>
-        <v>349.65</v>
+        <f aca="false">333*DemandWind!A18</f>
+        <v>352.98</v>
       </c>
       <c r="Q18" s="6" t="n">
-        <f aca="false">181*DemandWind!A17</f>
-        <v>190.05</v>
+        <f aca="false">181*DemandWind!A18</f>
+        <v>191.86</v>
       </c>
       <c r="R18" s="7" t="n">
-        <f aca="false">128*DemandWind!A17</f>
-        <v>134.4</v>
+        <f aca="false">128*DemandWind!A18</f>
+        <v>135.68</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="n">
-        <f aca="false">108*DemandWind!A18</f>
-        <v>114.48</v>
+        <f aca="false">108*DemandWind!A19</f>
+        <v>115.56</v>
       </c>
       <c r="C19" s="6" t="n">
-        <f aca="false">97*DemandWind!A18</f>
-        <v>102.82</v>
+        <f aca="false">97*DemandWind!A19</f>
+        <v>103.79</v>
       </c>
       <c r="D19" s="6" t="n">
-        <f aca="false">180*DemandWind!A18</f>
-        <v>190.8</v>
+        <f aca="false">180*DemandWind!A19</f>
+        <v>192.6</v>
       </c>
       <c r="E19" s="6" t="n">
-        <f aca="false">74*DemandWind!A18</f>
-        <v>78.44</v>
+        <f aca="false">74*DemandWind!A19</f>
+        <v>79.18</v>
       </c>
       <c r="F19" s="6" t="n">
-        <f aca="false">71*DemandWind!A18</f>
-        <v>75.26</v>
+        <f aca="false">71*DemandWind!A19</f>
+        <v>75.97</v>
       </c>
       <c r="G19" s="6" t="n">
-        <f aca="false">136*DemandWind!A18</f>
-        <v>144.16</v>
+        <f aca="false">136*DemandWind!A19</f>
+        <v>145.52</v>
       </c>
       <c r="H19" s="6" t="n">
-        <f aca="false">125*DemandWind!A18</f>
-        <v>132.5</v>
+        <f aca="false">125*DemandWind!A19</f>
+        <v>133.75</v>
       </c>
       <c r="I19" s="6" t="n">
-        <f aca="false">171*DemandWind!A18</f>
-        <v>181.26</v>
+        <f aca="false">171*DemandWind!A19</f>
+        <v>182.97</v>
       </c>
       <c r="J19" s="6" t="n">
-        <f aca="false">175*DemandWind!A18</f>
-        <v>185.5</v>
+        <f aca="false">175*DemandWind!A19</f>
+        <v>187.25</v>
       </c>
       <c r="K19" s="6" t="n">
-        <f aca="false">195*DemandWind!A18</f>
-        <v>206.7</v>
+        <f aca="false">195*DemandWind!A19</f>
+        <v>208.65</v>
       </c>
       <c r="L19" s="6" t="n">
-        <f aca="false">265*DemandWind!A18</f>
-        <v>280.9</v>
+        <f aca="false">265*DemandWind!A19</f>
+        <v>283.55</v>
       </c>
       <c r="M19" s="6" t="n">
-        <f aca="false">194*DemandWind!A18</f>
-        <v>205.64</v>
+        <f aca="false">194*DemandWind!A19</f>
+        <v>207.58</v>
       </c>
       <c r="N19" s="6" t="n">
-        <f aca="false">317*DemandWind!A18</f>
-        <v>336.02</v>
+        <f aca="false">317*DemandWind!A19</f>
+        <v>339.19</v>
       </c>
       <c r="O19" s="6" t="n">
-        <f aca="false">100*DemandWind!A18</f>
-        <v>106</v>
+        <f aca="false">100*DemandWind!A19</f>
+        <v>107</v>
       </c>
       <c r="P19" s="6" t="n">
-        <f aca="false">333*DemandWind!A18</f>
-        <v>352.98</v>
+        <f aca="false">333*DemandWind!A19</f>
+        <v>356.31</v>
       </c>
       <c r="Q19" s="6" t="n">
-        <f aca="false">181*DemandWind!A18</f>
-        <v>191.86</v>
+        <f aca="false">181*DemandWind!A19</f>
+        <v>193.67</v>
       </c>
       <c r="R19" s="7" t="n">
-        <f aca="false">128*DemandWind!A18</f>
-        <v>135.68</v>
+        <f aca="false">128*DemandWind!A19</f>
+        <v>136.96</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="n">
-        <f aca="false">108*DemandWind!A19</f>
-        <v>115.56</v>
+        <f aca="false">108*DemandWind!A20</f>
+        <v>116.64</v>
       </c>
       <c r="C20" s="6" t="n">
-        <f aca="false">97*DemandWind!A19</f>
-        <v>103.79</v>
+        <f aca="false">97*DemandWind!A20</f>
+        <v>104.76</v>
       </c>
       <c r="D20" s="6" t="n">
-        <f aca="false">180*DemandWind!A19</f>
-        <v>192.6</v>
+        <f aca="false">180*DemandWind!A20</f>
+        <v>194.4</v>
       </c>
       <c r="E20" s="6" t="n">
-        <f aca="false">74*DemandWind!A19</f>
-        <v>79.18</v>
+        <f aca="false">74*DemandWind!A20</f>
+        <v>79.92</v>
       </c>
       <c r="F20" s="6" t="n">
-        <f aca="false">71*DemandWind!A19</f>
-        <v>75.97</v>
+        <f aca="false">71*DemandWind!A20</f>
+        <v>76.68</v>
       </c>
       <c r="G20" s="6" t="n">
-        <f aca="false">136*DemandWind!A19</f>
-        <v>145.52</v>
+        <f aca="false">136*DemandWind!A20</f>
+        <v>146.88</v>
       </c>
       <c r="H20" s="6" t="n">
-        <f aca="false">125*DemandWind!A19</f>
-        <v>133.75</v>
+        <f aca="false">125*DemandWind!A20</f>
+        <v>135</v>
       </c>
       <c r="I20" s="6" t="n">
-        <f aca="false">171*DemandWind!A19</f>
-        <v>182.97</v>
+        <f aca="false">171*DemandWind!A20</f>
+        <v>184.68</v>
       </c>
       <c r="J20" s="6" t="n">
-        <f aca="false">175*DemandWind!A19</f>
-        <v>187.25</v>
+        <f aca="false">175*DemandWind!A20</f>
+        <v>189</v>
       </c>
       <c r="K20" s="6" t="n">
-        <f aca="false">195*DemandWind!A19</f>
-        <v>208.65</v>
+        <f aca="false">195*DemandWind!A20</f>
+        <v>210.6</v>
       </c>
       <c r="L20" s="6" t="n">
-        <f aca="false">265*DemandWind!A19</f>
-        <v>283.55</v>
+        <f aca="false">265*DemandWind!A20</f>
+        <v>286.2</v>
       </c>
       <c r="M20" s="6" t="n">
-        <f aca="false">194*DemandWind!A19</f>
-        <v>207.58</v>
+        <f aca="false">194*DemandWind!A20</f>
+        <v>209.52</v>
       </c>
       <c r="N20" s="6" t="n">
-        <f aca="false">317*DemandWind!A19</f>
-        <v>339.19</v>
+        <f aca="false">317*DemandWind!A20</f>
+        <v>342.36</v>
       </c>
       <c r="O20" s="6" t="n">
-        <f aca="false">100*DemandWind!A19</f>
-        <v>107</v>
+        <f aca="false">100*DemandWind!A20</f>
+        <v>108</v>
       </c>
       <c r="P20" s="6" t="n">
-        <f aca="false">333*DemandWind!A19</f>
-        <v>356.31</v>
+        <f aca="false">333*DemandWind!A20</f>
+        <v>359.64</v>
       </c>
       <c r="Q20" s="6" t="n">
-        <f aca="false">181*DemandWind!A19</f>
-        <v>193.67</v>
+        <f aca="false">181*DemandWind!A20</f>
+        <v>195.48</v>
       </c>
       <c r="R20" s="7" t="n">
-        <f aca="false">128*DemandWind!A19</f>
-        <v>136.96</v>
+        <f aca="false">128*DemandWind!A20</f>
+        <v>138.24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="n">
-        <f aca="false">108*DemandWind!A20</f>
-        <v>116.64</v>
+        <f aca="false">108*DemandWind!A21</f>
+        <v>117.72</v>
       </c>
       <c r="C21" s="6" t="n">
-        <f aca="false">97*DemandWind!A20</f>
-        <v>104.76</v>
+        <f aca="false">97*DemandWind!A21</f>
+        <v>105.73</v>
       </c>
       <c r="D21" s="6" t="n">
-        <f aca="false">180*DemandWind!A20</f>
-        <v>194.4</v>
+        <f aca="false">180*DemandWind!A21</f>
+        <v>196.2</v>
       </c>
       <c r="E21" s="6" t="n">
-        <f aca="false">74*DemandWind!A20</f>
-        <v>79.92</v>
+        <f aca="false">74*DemandWind!A21</f>
+        <v>80.66</v>
       </c>
       <c r="F21" s="6" t="n">
-        <f aca="false">71*DemandWind!A20</f>
-        <v>76.68</v>
+        <f aca="false">71*DemandWind!A21</f>
+        <v>77.39</v>
       </c>
       <c r="G21" s="6" t="n">
-        <f aca="false">136*DemandWind!A20</f>
-        <v>146.88</v>
+        <f aca="false">136*DemandWind!A21</f>
+        <v>148.24</v>
       </c>
       <c r="H21" s="6" t="n">
-        <f aca="false">125*DemandWind!A20</f>
-        <v>135</v>
+        <f aca="false">125*DemandWind!A21</f>
+        <v>136.25</v>
       </c>
       <c r="I21" s="6" t="n">
-        <f aca="false">171*DemandWind!A20</f>
-        <v>184.68</v>
+        <f aca="false">171*DemandWind!A21</f>
+        <v>186.39</v>
       </c>
       <c r="J21" s="6" t="n">
-        <f aca="false">175*DemandWind!A20</f>
-        <v>189</v>
+        <f aca="false">175*DemandWind!A21</f>
+        <v>190.75</v>
       </c>
       <c r="K21" s="6" t="n">
-        <f aca="false">195*DemandWind!A20</f>
-        <v>210.6</v>
+        <f aca="false">195*DemandWind!A21</f>
+        <v>212.55</v>
       </c>
       <c r="L21" s="6" t="n">
-        <f aca="false">265*DemandWind!A20</f>
-        <v>286.2</v>
+        <f aca="false">265*DemandWind!A21</f>
+        <v>288.85</v>
       </c>
       <c r="M21" s="6" t="n">
-        <f aca="false">194*DemandWind!A20</f>
-        <v>209.52</v>
+        <f aca="false">194*DemandWind!A21</f>
+        <v>211.46</v>
       </c>
       <c r="N21" s="6" t="n">
-        <f aca="false">317*DemandWind!A20</f>
-        <v>342.36</v>
+        <f aca="false">317*DemandWind!A21</f>
+        <v>345.53</v>
       </c>
       <c r="O21" s="6" t="n">
-        <f aca="false">100*DemandWind!A20</f>
-        <v>108</v>
+        <f aca="false">100*DemandWind!A21</f>
+        <v>109</v>
       </c>
       <c r="P21" s="6" t="n">
-        <f aca="false">333*DemandWind!A20</f>
-        <v>359.64</v>
+        <f aca="false">333*DemandWind!A21</f>
+        <v>362.97</v>
       </c>
       <c r="Q21" s="6" t="n">
-        <f aca="false">181*DemandWind!A20</f>
-        <v>195.48</v>
+        <f aca="false">181*DemandWind!A21</f>
+        <v>197.29</v>
       </c>
       <c r="R21" s="7" t="n">
-        <f aca="false">128*DemandWind!A20</f>
-        <v>138.24</v>
+        <f aca="false">128*DemandWind!A21</f>
+        <v>139.52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5" t="n">
-        <f aca="false">108*DemandWind!A21</f>
-        <v>117.72</v>
+        <f aca="false">108*DemandWind!A22</f>
+        <v>118.8</v>
       </c>
       <c r="C22" s="6" t="n">
-        <f aca="false">97*DemandWind!A21</f>
-        <v>105.73</v>
+        <f aca="false">97*DemandWind!A22</f>
+        <v>106.7</v>
       </c>
       <c r="D22" s="6" t="n">
-        <f aca="false">180*DemandWind!A21</f>
-        <v>196.2</v>
+        <f aca="false">180*DemandWind!A22</f>
+        <v>198</v>
       </c>
       <c r="E22" s="6" t="n">
-        <f aca="false">74*DemandWind!A21</f>
-        <v>80.66</v>
+        <f aca="false">74*DemandWind!A22</f>
+        <v>81.4</v>
       </c>
       <c r="F22" s="6" t="n">
-        <f aca="false">71*DemandWind!A21</f>
-        <v>77.39</v>
+        <f aca="false">71*DemandWind!A22</f>
+        <v>78.1</v>
       </c>
       <c r="G22" s="6" t="n">
-        <f aca="false">136*DemandWind!A21</f>
-        <v>148.24</v>
+        <f aca="false">136*DemandWind!A22</f>
+        <v>149.6</v>
       </c>
       <c r="H22" s="6" t="n">
-        <f aca="false">125*DemandWind!A21</f>
-        <v>136.25</v>
+        <f aca="false">125*DemandWind!A22</f>
+        <v>137.5</v>
       </c>
       <c r="I22" s="6" t="n">
-        <f aca="false">171*DemandWind!A21</f>
-        <v>186.39</v>
+        <f aca="false">171*DemandWind!A22</f>
+        <v>188.1</v>
       </c>
       <c r="J22" s="6" t="n">
-        <f aca="false">175*DemandWind!A21</f>
-        <v>190.75</v>
+        <f aca="false">175*DemandWind!A22</f>
+        <v>192.5</v>
       </c>
       <c r="K22" s="6" t="n">
-        <f aca="false">195*DemandWind!A21</f>
-        <v>212.55</v>
+        <f aca="false">195*DemandWind!A22</f>
+        <v>214.5</v>
       </c>
       <c r="L22" s="6" t="n">
-        <f aca="false">265*DemandWind!A21</f>
-        <v>288.85</v>
+        <f aca="false">265*DemandWind!A22</f>
+        <v>291.5</v>
       </c>
       <c r="M22" s="6" t="n">
-        <f aca="false">194*DemandWind!A21</f>
-        <v>211.46</v>
+        <f aca="false">194*DemandWind!A22</f>
+        <v>213.4</v>
       </c>
       <c r="N22" s="6" t="n">
-        <f aca="false">317*DemandWind!A21</f>
-        <v>345.53</v>
+        <f aca="false">317*DemandWind!A22</f>
+        <v>348.7</v>
       </c>
       <c r="O22" s="6" t="n">
-        <f aca="false">100*DemandWind!A21</f>
-        <v>109</v>
+        <f aca="false">100*DemandWind!A22</f>
+        <v>110</v>
       </c>
       <c r="P22" s="6" t="n">
-        <f aca="false">333*DemandWind!A21</f>
-        <v>362.97</v>
+        <f aca="false">333*DemandWind!A22</f>
+        <v>366.3</v>
       </c>
       <c r="Q22" s="6" t="n">
-        <f aca="false">181*DemandWind!A21</f>
-        <v>197.29</v>
+        <f aca="false">181*DemandWind!A22</f>
+        <v>199.1</v>
       </c>
       <c r="R22" s="7" t="n">
-        <f aca="false">128*DemandWind!A21</f>
-        <v>139.52</v>
+        <f aca="false">128*DemandWind!A22</f>
+        <v>140.8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="n">
-        <f aca="false">108*DemandWind!A22</f>
-        <v>118.8</v>
+        <f aca="false">108*DemandWind!A23</f>
+        <v>119.88</v>
       </c>
       <c r="C23" s="6" t="n">
-        <f aca="false">97*DemandWind!A22</f>
-        <v>106.7</v>
+        <f aca="false">97*DemandWind!A23</f>
+        <v>107.67</v>
       </c>
       <c r="D23" s="6" t="n">
-        <f aca="false">180*DemandWind!A22</f>
-        <v>198</v>
+        <f aca="false">180*DemandWind!A23</f>
+        <v>199.8</v>
       </c>
       <c r="E23" s="6" t="n">
-        <f aca="false">74*DemandWind!A22</f>
-        <v>81.4</v>
+        <f aca="false">74*DemandWind!A23</f>
+        <v>82.14</v>
       </c>
       <c r="F23" s="6" t="n">
-        <f aca="false">71*DemandWind!A22</f>
-        <v>78.1</v>
+        <f aca="false">71*DemandWind!A23</f>
+        <v>78.81</v>
       </c>
       <c r="G23" s="6" t="n">
-        <f aca="false">136*DemandWind!A22</f>
-        <v>149.6</v>
+        <f aca="false">136*DemandWind!A23</f>
+        <v>150.96</v>
       </c>
       <c r="H23" s="6" t="n">
-        <f aca="false">125*DemandWind!A22</f>
-        <v>137.5</v>
+        <f aca="false">125*DemandWind!A23</f>
+        <v>138.75</v>
       </c>
       <c r="I23" s="6" t="n">
-        <f aca="false">171*DemandWind!A22</f>
-        <v>188.1</v>
+        <f aca="false">171*DemandWind!A23</f>
+        <v>189.81</v>
       </c>
       <c r="J23" s="6" t="n">
-        <f aca="false">175*DemandWind!A22</f>
-        <v>192.5</v>
+        <f aca="false">175*DemandWind!A23</f>
+        <v>194.25</v>
       </c>
       <c r="K23" s="6" t="n">
-        <f aca="false">195*DemandWind!A22</f>
-        <v>214.5</v>
+        <f aca="false">195*DemandWind!A23</f>
+        <v>216.45</v>
       </c>
       <c r="L23" s="6" t="n">
-        <f aca="false">265*DemandWind!A22</f>
-        <v>291.5</v>
+        <f aca="false">265*DemandWind!A23</f>
+        <v>294.15</v>
       </c>
       <c r="M23" s="6" t="n">
-        <f aca="false">194*DemandWind!A22</f>
-        <v>213.4</v>
+        <f aca="false">194*DemandWind!A23</f>
+        <v>215.34</v>
       </c>
       <c r="N23" s="6" t="n">
-        <f aca="false">317*DemandWind!A22</f>
-        <v>348.7</v>
+        <f aca="false">317*DemandWind!A23</f>
+        <v>351.87</v>
       </c>
       <c r="O23" s="6" t="n">
-        <f aca="false">100*DemandWind!A22</f>
-        <v>110</v>
+        <f aca="false">100*DemandWind!A23</f>
+        <v>111</v>
       </c>
       <c r="P23" s="6" t="n">
-        <f aca="false">333*DemandWind!A22</f>
-        <v>366.3</v>
+        <f aca="false">333*DemandWind!A23</f>
+        <v>369.63</v>
       </c>
       <c r="Q23" s="6" t="n">
-        <f aca="false">181*DemandWind!A22</f>
-        <v>199.1</v>
+        <f aca="false">181*DemandWind!A23</f>
+        <v>200.91</v>
       </c>
       <c r="R23" s="7" t="n">
-        <f aca="false">128*DemandWind!A22</f>
-        <v>140.8</v>
+        <f aca="false">128*DemandWind!A23</f>
+        <v>142.08</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="n">
-        <f aca="false">108*DemandWind!A23</f>
-        <v>119.88</v>
+        <f aca="false">108*DemandWind!A24</f>
+        <v>120.96</v>
       </c>
       <c r="C24" s="6" t="n">
-        <f aca="false">97*DemandWind!A23</f>
-        <v>107.67</v>
+        <f aca="false">97*DemandWind!A24</f>
+        <v>108.64</v>
       </c>
       <c r="D24" s="6" t="n">
-        <f aca="false">180*DemandWind!A23</f>
-        <v>199.8</v>
+        <f aca="false">180*DemandWind!A24</f>
+        <v>201.6</v>
       </c>
       <c r="E24" s="6" t="n">
-        <f aca="false">74*DemandWind!A23</f>
-        <v>82.14</v>
+        <f aca="false">74*DemandWind!A24</f>
+        <v>82.88</v>
       </c>
       <c r="F24" s="6" t="n">
-        <f aca="false">71*DemandWind!A23</f>
-        <v>78.81</v>
+        <f aca="false">71*DemandWind!A24</f>
+        <v>79.52</v>
       </c>
       <c r="G24" s="6" t="n">
-        <f aca="false">136*DemandWind!A23</f>
-        <v>150.96</v>
+        <f aca="false">136*DemandWind!A24</f>
+        <v>152.32</v>
       </c>
       <c r="H24" s="6" t="n">
-        <f aca="false">125*DemandWind!A23</f>
-        <v>138.75</v>
+        <f aca="false">125*DemandWind!A24</f>
+        <v>140</v>
       </c>
       <c r="I24" s="6" t="n">
-        <f aca="false">171*DemandWind!A23</f>
-        <v>189.81</v>
+        <f aca="false">171*DemandWind!A24</f>
+        <v>191.52</v>
       </c>
       <c r="J24" s="6" t="n">
-        <f aca="false">175*DemandWind!A23</f>
-        <v>194.25</v>
+        <f aca="false">175*DemandWind!A24</f>
+        <v>196</v>
       </c>
       <c r="K24" s="6" t="n">
-        <f aca="false">195*DemandWind!A23</f>
-        <v>216.45</v>
+        <f aca="false">195*DemandWind!A24</f>
+        <v>218.4</v>
       </c>
       <c r="L24" s="6" t="n">
-        <f aca="false">265*DemandWind!A23</f>
-        <v>294.15</v>
+        <f aca="false">265*DemandWind!A24</f>
+        <v>296.8</v>
       </c>
       <c r="M24" s="6" t="n">
-        <f aca="false">194*DemandWind!A23</f>
-        <v>215.34</v>
+        <f aca="false">194*DemandWind!A24</f>
+        <v>217.28</v>
       </c>
       <c r="N24" s="6" t="n">
-        <f aca="false">317*DemandWind!A23</f>
-        <v>351.87</v>
+        <f aca="false">317*DemandWind!A24</f>
+        <v>355.04</v>
       </c>
       <c r="O24" s="6" t="n">
-        <f aca="false">100*DemandWind!A23</f>
-        <v>111</v>
+        <f aca="false">100*DemandWind!A24</f>
+        <v>112</v>
       </c>
       <c r="P24" s="6" t="n">
-        <f aca="false">333*DemandWind!A23</f>
-        <v>369.63</v>
+        <f aca="false">333*DemandWind!A24</f>
+        <v>372.96</v>
       </c>
       <c r="Q24" s="6" t="n">
-        <f aca="false">181*DemandWind!A23</f>
-        <v>200.91</v>
+        <f aca="false">181*DemandWind!A24</f>
+        <v>202.72</v>
       </c>
       <c r="R24" s="7" t="n">
-        <f aca="false">128*DemandWind!A23</f>
-        <v>142.08</v>
+        <f aca="false">128*DemandWind!A24</f>
+        <v>143.36</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="n">
-        <f aca="false">108*DemandWind!A24</f>
-        <v>120.96</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <f aca="false">97*DemandWind!A24</f>
-        <v>108.64</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <f aca="false">180*DemandWind!A24</f>
-        <v>201.6</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <f aca="false">74*DemandWind!A24</f>
-        <v>82.88</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <f aca="false">71*DemandWind!A24</f>
-        <v>79.52</v>
-      </c>
-      <c r="G25" s="6" t="n">
-        <f aca="false">136*DemandWind!A24</f>
-        <v>152.32</v>
-      </c>
-      <c r="H25" s="6" t="n">
-        <f aca="false">125*DemandWind!A24</f>
-        <v>140</v>
-      </c>
-      <c r="I25" s="6" t="n">
-        <f aca="false">171*DemandWind!A24</f>
-        <v>191.52</v>
-      </c>
-      <c r="J25" s="6" t="n">
-        <f aca="false">175*DemandWind!A24</f>
-        <v>196</v>
-      </c>
-      <c r="K25" s="6" t="n">
-        <f aca="false">195*DemandWind!A24</f>
-        <v>218.4</v>
-      </c>
-      <c r="L25" s="6" t="n">
-        <f aca="false">265*DemandWind!A24</f>
-        <v>296.8</v>
-      </c>
-      <c r="M25" s="6" t="n">
-        <f aca="false">194*DemandWind!A24</f>
-        <v>217.28</v>
-      </c>
-      <c r="N25" s="6" t="n">
-        <f aca="false">317*DemandWind!A24</f>
-        <v>355.04</v>
-      </c>
-      <c r="O25" s="6" t="n">
-        <f aca="false">100*DemandWind!A24</f>
-        <v>112</v>
-      </c>
-      <c r="P25" s="6" t="n">
-        <f aca="false">333*DemandWind!A24</f>
-        <v>372.96</v>
-      </c>
-      <c r="Q25" s="6" t="n">
-        <f aca="false">181*DemandWind!A24</f>
-        <v>202.72</v>
-      </c>
-      <c r="R25" s="7" t="n">
-        <f aca="false">128*DemandWind!A24</f>
-        <v>143.36</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5" t="n">
         <f aca="false">108*DemandWind!A25</f>
         <v>122.04</v>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C25" s="6" t="n">
         <f aca="false">97*DemandWind!A25</f>
         <v>109.61</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D25" s="6" t="n">
         <f aca="false">180*DemandWind!A25</f>
         <v>203.4</v>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E25" s="6" t="n">
         <f aca="false">74*DemandWind!A25</f>
         <v>83.62</v>
       </c>
-      <c r="F26" s="6" t="n">
+      <c r="F25" s="6" t="n">
         <f aca="false">71*DemandWind!A25</f>
         <v>80.23</v>
       </c>
-      <c r="G26" s="6" t="n">
+      <c r="G25" s="6" t="n">
         <f aca="false">136*DemandWind!A25</f>
         <v>153.68</v>
       </c>
-      <c r="H26" s="6" t="n">
+      <c r="H25" s="6" t="n">
         <f aca="false">125*DemandWind!A25</f>
         <v>141.25</v>
       </c>
-      <c r="I26" s="6" t="n">
+      <c r="I25" s="6" t="n">
         <f aca="false">171*DemandWind!A25</f>
         <v>193.23</v>
       </c>
-      <c r="J26" s="6" t="n">
+      <c r="J25" s="6" t="n">
         <f aca="false">175*DemandWind!A25</f>
         <v>197.75</v>
       </c>
-      <c r="K26" s="6" t="n">
+      <c r="K25" s="6" t="n">
         <f aca="false">195*DemandWind!A25</f>
         <v>220.35</v>
       </c>
-      <c r="L26" s="6" t="n">
+      <c r="L25" s="6" t="n">
         <f aca="false">265*DemandWind!A25</f>
         <v>299.45</v>
       </c>
-      <c r="M26" s="6" t="n">
+      <c r="M25" s="6" t="n">
         <f aca="false">194*DemandWind!A25</f>
         <v>219.22</v>
       </c>
-      <c r="N26" s="6" t="n">
+      <c r="N25" s="6" t="n">
         <f aca="false">317*DemandWind!A25</f>
         <v>358.21</v>
       </c>
-      <c r="O26" s="6" t="n">
+      <c r="O25" s="6" t="n">
         <f aca="false">100*DemandWind!A25</f>
         <v>113</v>
       </c>
-      <c r="P26" s="6" t="n">
+      <c r="P25" s="6" t="n">
         <f aca="false">333*DemandWind!A25</f>
         <v>376.29</v>
       </c>
-      <c r="Q26" s="6" t="n">
+      <c r="Q25" s="6" t="n">
         <f aca="false">181*DemandWind!A25</f>
         <v>204.53</v>
       </c>
-      <c r="R26" s="7" t="n">
+      <c r="R25" s="7" t="n">
         <f aca="false">128*DemandWind!A25</f>
         <v>144.64</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:R1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -9673,7 +9636,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9691,33 +9654,34 @@
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>350</v>
-      </c>
+      <c r="L1" s="0"/>
       <c r="AMF1" s="0"/>
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
@@ -9725,43 +9689,43 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="B2" s="23" t="n">
+      <c r="A2" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="23" t="n">
+      <c r="C2" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="n">
+      <c r="D2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21" t="n">
         <v>3000</v>
       </c>
-      <c r="F2" s="23" t="n">
+      <c r="F2" s="21" t="n">
         <v>250</v>
       </c>
-      <c r="G2" s="23" t="n">
+      <c r="G2" s="21" t="n">
         <v>250</v>
       </c>
-      <c r="H2" s="23" t="n">
+      <c r="H2" s="21" t="n">
         <v>87</v>
       </c>
-      <c r="I2" s="23" t="n">
+      <c r="I2" s="21" t="n">
         <v>87</v>
       </c>
-      <c r="J2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="23" t="n">
+      <c r="J2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>4</v>
@@ -9769,34 +9733,34 @@
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="n">
+      <c r="D3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21" t="n">
         <v>3000</v>
       </c>
-      <c r="F3" s="23" t="n">
+      <c r="F3" s="21" t="n">
         <v>250</v>
       </c>
-      <c r="G3" s="23" t="n">
+      <c r="G3" s="21" t="n">
         <v>250</v>
       </c>
-      <c r="H3" s="23" t="n">
+      <c r="H3" s="21" t="n">
         <v>87</v>
       </c>
-      <c r="I3" s="23" t="n">
+      <c r="I3" s="21" t="n">
         <v>87</v>
       </c>
-      <c r="J3" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="23" t="n">
+      <c r="J3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>6</v>
@@ -9804,34 +9768,34 @@
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23" t="n">
+      <c r="D4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21" t="n">
         <v>3000</v>
       </c>
-      <c r="F4" s="23" t="n">
+      <c r="F4" s="21" t="n">
         <v>250</v>
       </c>
-      <c r="G4" s="23" t="n">
+      <c r="G4" s="21" t="n">
         <v>250</v>
       </c>
-      <c r="H4" s="23" t="n">
+      <c r="H4" s="21" t="n">
         <v>87</v>
       </c>
-      <c r="I4" s="23" t="n">
+      <c r="I4" s="21" t="n">
         <v>87</v>
       </c>
-      <c r="J4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="23" t="n">
+      <c r="J4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>8</v>
@@ -9839,34 +9803,34 @@
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23" t="n">
+      <c r="D5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21" t="n">
         <v>3000</v>
       </c>
-      <c r="F5" s="23" t="n">
+      <c r="F5" s="21" t="n">
         <v>250</v>
       </c>
-      <c r="G5" s="23" t="n">
+      <c r="G5" s="21" t="n">
         <v>250</v>
       </c>
-      <c r="H5" s="23" t="n">
+      <c r="H5" s="21" t="n">
         <v>87</v>
       </c>
-      <c r="I5" s="23" t="n">
+      <c r="I5" s="21" t="n">
         <v>87</v>
       </c>
-      <c r="J5" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="23" t="n">
+      <c r="J5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>10</v>
@@ -9874,28 +9838,28 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="23" t="n">
+      <c r="D6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21" t="n">
         <v>3000</v>
       </c>
-      <c r="F6" s="23" t="n">
+      <c r="F6" s="21" t="n">
         <v>250</v>
       </c>
-      <c r="G6" s="23" t="n">
+      <c r="G6" s="21" t="n">
         <v>250</v>
       </c>
-      <c r="H6" s="23" t="n">
+      <c r="H6" s="21" t="n">
         <v>87</v>
       </c>
-      <c r="I6" s="23" t="n">
+      <c r="I6" s="21" t="n">
         <v>87</v>
       </c>
-      <c r="J6" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="23" t="n">
+      <c r="J6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21" t="n">
         <v>0</v>
       </c>
     </row>
